--- a/FORMATO PARA AFORO DE VEHICULOS.xlsx
+++ b/FORMATO PARA AFORO DE VEHICULOS.xlsx
@@ -1,19 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoftware\PycharmProjects\supervision\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10250226-BC88-4198-8245-535F018FF3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2985" windowWidth="14520" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="11865" windowHeight="13215" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="propuesto final" sheetId="1" r:id="rId1"/>
+    <sheet name="propuesto final" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -23,7 +16,6 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'propuesto final'!$A$1:$O$15</definedName>
     <definedName name="camber">[1]lists!#REF!</definedName>
     <definedName name="cambio">#REF!</definedName>
     <definedName name="cambio2">#REF!</definedName>
@@ -46,139 +38,70 @@
     <definedName name="saldomanica2">#REF!</definedName>
     <definedName name="salsdomanic">'[5]Plano 2002- prov -FUNDO'!$AD$3</definedName>
     <definedName name="total">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'propuesto final'!$A$1:$O$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>NOMBRE DE PROYECTO</t>
-  </si>
-  <si>
-    <t>AFOROS VEHICULARES</t>
-  </si>
-  <si>
-    <t>REVISION 0</t>
-  </si>
-  <si>
-    <t>Fecha (D.M.A):_______________________________   Estación de Aforo:_____________________________________________</t>
-  </si>
-  <si>
-    <t>Condición Climática:__________________________________  Movimientos Aforados : __________________________________</t>
-  </si>
-  <si>
-    <t>Aforador: __________________________________________________________________________         Hoja ______ de ______</t>
-  </si>
-  <si>
-    <t>Coordinador: ______________________________________________     Hora de Inicio : ___________   Hora Final : ___________</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16.000</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Futura Lt BT"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Futura Md BT"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Futura Md BT"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="Futura Md BT"/>
       <family val="2"/>
+      <sz val="9"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -395,6 +318,44 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -403,85 +364,144 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Numb_Com_10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Numb-10-MB" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Number-10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Title-10" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Title-11-MBB" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Title-9" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Numb_Com_10" xfId="1"/>
+    <cellStyle name="Numb-10-MB" xfId="2"/>
+    <cellStyle name="Number-10" xfId="3"/>
+    <cellStyle name="Title-10" xfId="4"/>
+    <cellStyle name="Title-11-MBB" xfId="5"/>
+    <cellStyle name="Title-9" xfId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="lists"/>
       <sheetName val="input sheets"/>
@@ -916,8 +936,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Base Data"/>
       <sheetName val="Snapshot"/>
@@ -947,8 +967,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Blank Form"/>
       <sheetName val="Maputo Fisic"/>
@@ -980,8 +1000,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Data Lists"/>
       <sheetName val="Sheet1"/>
@@ -1068,8 +1088,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Geral"/>
       <sheetName val="Base"/>
@@ -1470,290 +1490,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="13" width="11.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="0.7109375" style="3" customWidth="1"/>
+    <col width="1.28515625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="11.85546875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="17.85546875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="36.140625" customWidth="1" style="3" min="4" max="4"/>
+    <col width="27.5703125" customWidth="1" style="3" min="5" max="5"/>
+    <col width="23.5703125" customWidth="1" style="3" min="6" max="6"/>
+    <col width="16.28515625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" style="3" min="8" max="8"/>
+    <col width="11.7109375" customWidth="1" style="3" min="9" max="13"/>
+    <col width="23.5703125" customWidth="1" style="3" min="14" max="14"/>
+    <col width="11.140625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="0.7109375" customWidth="1" style="3" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="3" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:14" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="17.25" customHeight="1">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="2:14" ht="17.25" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="2:14" ht="17.25" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="2.25" customHeight="1" thickBot="1"/>
-    <row r="9" spans="2:14" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="2:14" ht="75" customHeight="1" thickBot="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="2:14" ht="47.25" customHeight="1">
-      <c r="B16" t="s">
-        <v>8</v>
+    <row r="1" ht="3" customHeight="1" s="3" thickBot="1"/>
+    <row r="2" ht="22.5" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="20" t="n"/>
+      <c r="C2" s="21" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="22" t="n"/>
+      <c r="F2" s="17" t="inlineStr">
+        <is>
+          <t>NOMBRE DE PROYECTO</t>
+        </is>
+      </c>
+      <c r="G2" s="15" t="n"/>
+      <c r="H2" s="15" t="n"/>
+      <c r="I2" s="15" t="n"/>
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="15" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="12" t="n"/>
+      <c r="N2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="3" thickBot="1">
+      <c r="B3" s="23" t="n"/>
+      <c r="C3" s="24" t="n"/>
+      <c r="D3" s="24" t="n"/>
+      <c r="E3" s="25" t="n"/>
+      <c r="F3" s="14" t="inlineStr">
+        <is>
+          <t>AFOROS VEHICULARES</t>
+        </is>
+      </c>
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="18" t="inlineStr">
+        <is>
+          <t>REVISION 0</t>
+        </is>
+      </c>
+      <c r="N3" s="19" t="n"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" s="3">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Fecha (D.M.A):_______________________________   Estación de Aforo:_____________________________________________</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" s="3">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Condición Climática:__________________________________  Movimientos Aforados : __________________________________</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" s="3">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Aforador: __________________________________________________________________________         Hoja ______ de ______</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" s="3">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Coordinador: ______________________________________________     Hora de Inicio : ___________   Hora Final : ___________</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="2.25" customHeight="1" s="3" thickBot="1"/>
+    <row r="9" ht="39.75" customHeight="1" s="3" thickBot="1">
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>hora</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Camion</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>carros</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+      <c r="M9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="71.25" customHeight="1" s="3" thickBot="1">
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.000</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="71.25" customHeight="1" s="3" thickBot="1">
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.000</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="6" t="n"/>
+      <c r="K11" s="5" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="11" t="n"/>
+    </row>
+    <row r="12" ht="71.25" customHeight="1" s="3" thickBot="1">
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.000</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="6" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="71.25" customHeight="1" s="3" thickBot="1">
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.000</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="6" t="n"/>
+      <c r="J13" s="6" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="11" t="n"/>
+    </row>
+    <row r="14" ht="71.25" customHeight="1" s="3" thickBot="1">
+      <c r="B14" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.000</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="6" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="75" customHeight="1" s="3" thickBot="1">
+      <c r="B15" s="11" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="7" t="n"/>
+      <c r="I15" s="8" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="7" t="n"/>
+      <c r="L15" s="7" t="n"/>
+      <c r="M15" s="11" t="n"/>
+    </row>
+    <row r="16" ht="47.25" customHeight="1" s="3">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.000</t>
+        </is>
       </c>
       <c r="D16">
         <f>D1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="74.25" customHeight="1">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>17</v>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="74.25" customHeight="1" s="3">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 16.000</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1854,7 @@
     <mergeCell ref="B2:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.31496062992125978" right="0.27559055118110237" top="0.19685039370078741" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="5" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.3149606299212598" right="0.2755905511811024" top="0.1968503937007874" bottom="0.2755905511811024" header="0.1968503937007874" footer="0.1968503937007874"/>
+  <pageSetup orientation="landscape" paperSize="5" scale="94" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FORMATO PARA AFORO DE VEHICULOS.xlsx
+++ b/FORMATO PARA AFORO DE VEHICULOS.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="11865" windowHeight="13215" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="840" yWindow="2160" windowWidth="13005" windowHeight="13245" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="propuesto final" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="etsttes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -38,7 +38,7 @@
     <definedName name="saldomanica2">#REF!</definedName>
     <definedName name="salsdomanic">'[5]Plano 2002- prov -FUNDO'!$AD$3</definedName>
     <definedName name="total">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'propuesto final'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'etsttes'!$A$1:$O$15</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1497,11 +1497,11 @@
   </sheetPr>
   <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col width="1.28515625" customWidth="1" style="3" min="1" max="1"/>
     <col width="11.85546875" customWidth="1" style="3" min="2" max="2"/>
@@ -1601,7 +1601,7 @@
     <row r="6" ht="17.25" customHeight="1" s="3">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Aforador: __________________________________________________________________________         Hoja ______ de ______</t>
+          <t>Aforador:  __________________________________________________________________________         Hoja ______ de ______</t>
         </is>
       </c>
       <c r="C6" s="1" t="n"/>
@@ -1643,21 +1643,9 @@
           <t>hora</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Camion</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>carros</t>
-        </is>
-      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
       <c r="F9" s="4" t="n"/>
       <c r="G9" s="4" t="n"/>
       <c r="H9" s="4" t="n"/>
@@ -1668,11 +1656,7 @@
       <c r="M9" s="4" t="n"/>
     </row>
     <row r="10" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.000</t>
-        </is>
-      </c>
+      <c r="B10" s="11" t="n"/>
       <c r="C10" s="4" t="n"/>
       <c r="D10" s="9" t="n"/>
       <c r="E10" s="9" t="n"/>
@@ -1686,14 +1670,10 @@
       <c r="M10" s="11" t="n"/>
     </row>
     <row r="11" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.000</t>
-        </is>
-      </c>
+      <c r="B11" s="11" t="n"/>
       <c r="C11" s="4" t="n"/>
       <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
+      <c r="E11" s="9" t="n"/>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="5" t="n"/>
@@ -1704,14 +1684,10 @@
       <c r="M11" s="11" t="n"/>
     </row>
     <row r="12" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.000</t>
-        </is>
-      </c>
+      <c r="B12" s="11" t="n"/>
       <c r="C12" s="9" t="n"/>
       <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
+      <c r="E12" s="9" t="n"/>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="5" t="n"/>
@@ -1722,11 +1698,7 @@
       <c r="M12" s="11" t="n"/>
     </row>
     <row r="13" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.000</t>
-        </is>
-      </c>
+      <c r="B13" s="11" t="n"/>
       <c r="C13" s="9" t="n"/>
       <c r="D13" s="5" t="n"/>
       <c r="E13" s="5" t="n"/>
@@ -1740,11 +1712,7 @@
       <c r="M13" s="11" t="n"/>
     </row>
     <row r="14" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.000</t>
-        </is>
-      </c>
+      <c r="B14" s="11" t="n"/>
       <c r="C14" s="9" t="n"/>
       <c r="D14" s="5" t="n"/>
       <c r="E14" s="5" t="n"/>
@@ -1758,7 +1726,11 @@
       <c r="M14" s="11" t="n"/>
     </row>
     <row r="15" ht="75" customHeight="1" s="3" thickBot="1">
-      <c r="B15" s="11" t="n"/>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.000</t>
+        </is>
+      </c>
       <c r="C15" s="9" t="n"/>
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>

--- a/FORMATO PARA AFORO DE VEHICULOS.xlsx
+++ b/FORMATO PARA AFORO DE VEHICULOS.xlsx
@@ -1,12 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoftware\PycharmProjects\supervision\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECCA29D-E1A5-4DA4-B481-E3F1356EFF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="840" yWindow="2160" windowWidth="13005" windowHeight="13245" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1785" yWindow="1815" windowWidth="13425" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="etsttes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -16,6 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$O$15</definedName>
     <definedName name="camber">[1]lists!#REF!</definedName>
     <definedName name="cambio">#REF!</definedName>
     <definedName name="cambio2">#REF!</definedName>
@@ -38,70 +46,109 @@
     <definedName name="saldomanica2">#REF!</definedName>
     <definedName name="salsdomanic">'[5]Plano 2002- prov -FUNDO'!$AD$3</definedName>
     <definedName name="total">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'etsttes'!$A$1:$O$15</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>NOMBRE DE PROYECTO</t>
+  </si>
+  <si>
+    <t>AFOROS VEHICULARES</t>
+  </si>
+  <si>
+    <t>REVISION 0</t>
+  </si>
+  <si>
+    <t>Fecha (D.M.A):_______________________________   Estación de Aforo:_____________________________________________</t>
+  </si>
+  <si>
+    <t>Condición Climática:__________________________________  Movimientos Aforados : __________________________________</t>
+  </si>
+  <si>
+    <t>Aforador:  __________________________________________________________________________         Hoja ______ de ______</t>
+  </si>
+  <si>
+    <t>Coordinador: ______________________________________________     Hora de Inicio : ___________   Hora Final : ___________</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Futura Lt BT"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Futura Md BT"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Futura Md BT"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Futura Md BT"/>
       <family val="2"/>
-      <sz val="9"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -320,188 +367,101 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Numb_Com_10" xfId="1"/>
-    <cellStyle name="Numb-10-MB" xfId="2"/>
-    <cellStyle name="Number-10" xfId="3"/>
-    <cellStyle name="Title-10" xfId="4"/>
-    <cellStyle name="Title-11-MBB" xfId="5"/>
-    <cellStyle name="Title-9" xfId="6"/>
+    <cellStyle name="Numb_Com_10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Numb-10-MB" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Number-10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Title-10" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Title-11-MBB" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Title-9" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="lists"/>
       <sheetName val="input sheets"/>
@@ -936,8 +896,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Base Data"/>
       <sheetName val="Snapshot"/>
@@ -967,8 +927,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Blank Form"/>
       <sheetName val="Maputo Fisic"/>
@@ -1000,8 +960,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Data Lists"/>
       <sheetName val="Sheet1"/>
@@ -1088,8 +1048,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Geral"/>
       <sheetName val="Base"/>
@@ -1490,333 +1450,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N25"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col width="1.28515625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.85546875" customWidth="1" style="3" min="2" max="2"/>
-    <col width="17.85546875" customWidth="1" style="3" min="3" max="3"/>
-    <col width="36.140625" customWidth="1" style="3" min="4" max="4"/>
-    <col width="27.5703125" customWidth="1" style="3" min="5" max="5"/>
-    <col width="23.5703125" customWidth="1" style="3" min="6" max="6"/>
-    <col width="16.28515625" customWidth="1" style="3" min="7" max="7"/>
-    <col width="15.85546875" customWidth="1" style="3" min="8" max="8"/>
-    <col width="11.7109375" customWidth="1" style="3" min="9" max="13"/>
-    <col width="23.5703125" customWidth="1" style="3" min="14" max="14"/>
-    <col width="11.140625" customWidth="1" style="3" min="15" max="15"/>
-    <col width="0.7109375" customWidth="1" style="3" min="16" max="16"/>
+    <col min="1" max="1" width="1.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" customWidth="1"/>
+    <col min="9" max="13" width="11.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="0.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="3" customHeight="1" s="3" thickBot="1"/>
-    <row r="2" ht="22.5" customHeight="1" s="3" thickBot="1">
-      <c r="B2" s="20" t="n"/>
-      <c r="C2" s="21" t="n"/>
-      <c r="D2" s="21" t="n"/>
-      <c r="E2" s="22" t="n"/>
-      <c r="F2" s="17" t="inlineStr">
-        <is>
-          <t>NOMBRE DE PROYECTO</t>
-        </is>
+    <row r="1" spans="2:14" ht="3" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:14" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="13" t="s">
+        <v>0</v>
       </c>
-      <c r="G2" s="15" t="n"/>
-      <c r="H2" s="15" t="n"/>
-      <c r="I2" s="15" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="16" t="n"/>
-      <c r="M2" s="12" t="n"/>
-      <c r="N2" s="13" t="n"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="3" thickBot="1">
-      <c r="B3" s="23" t="n"/>
-      <c r="C3" s="24" t="n"/>
-      <c r="D3" s="24" t="n"/>
-      <c r="E3" s="25" t="n"/>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>AFOROS VEHICULARES</t>
-        </is>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="10" t="s">
+        <v>1</v>
       </c>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n"/>
-      <c r="L3" s="16" t="n"/>
-      <c r="M3" s="18" t="inlineStr">
-        <is>
-          <t>REVISION 0</t>
-        </is>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="14" t="s">
+        <v>2</v>
       </c>
-      <c r="N3" s="19" t="n"/>
+      <c r="N3" s="15"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="3">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Fecha (D.M.A):_______________________________   Estación de Aforo:_____________________________________________</t>
-        </is>
+    <row r="4" spans="2:14" ht="17.25" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="3">
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Condición Climática:__________________________________  Movimientos Aforados : __________________________________</t>
-        </is>
+    <row r="5" spans="2:14" ht="17.25" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="3">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Aforador:  __________________________________________________________________________         Hoja ______ de ______</t>
-        </is>
+    <row r="6" spans="2:14" ht="17.25" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" ht="17.25" customHeight="1" s="3">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Coordinador: ______________________________________________     Hora de Inicio : ___________   Hora Final : ___________</t>
-        </is>
+    <row r="7" spans="2:14" ht="17.25" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" ht="2.25" customHeight="1" s="3" thickBot="1"/>
-    <row r="9" ht="39.75" customHeight="1" s="3" thickBot="1">
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>hora</t>
-        </is>
+    <row r="8" spans="2:14" ht="2.25" customHeight="1" thickBot="1"/>
+    <row r="9" spans="2:14" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="9" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="11" t="n"/>
+    <row r="10" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="7"/>
     </row>
-    <row r="11" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B11" s="11" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="6" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="11" t="n"/>
+    <row r="11" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="7"/>
     </row>
-    <row r="12" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="9" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="9" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="11" t="n"/>
+    <row r="12" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7"/>
     </row>
-    <row r="13" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="9" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-      <c r="I13" s="6" t="n"/>
-      <c r="J13" s="6" t="n"/>
-      <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="11" t="n"/>
+    <row r="13" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="7"/>
     </row>
-    <row r="14" ht="71.25" customHeight="1" s="3" thickBot="1">
-      <c r="B14" s="11" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-      <c r="I14" s="6" t="n"/>
-      <c r="J14" s="6" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="11" t="n"/>
+    <row r="14" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="7"/>
     </row>
-    <row r="15" ht="75" customHeight="1" s="3" thickBot="1">
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.000</t>
-        </is>
-      </c>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="8" t="n"/>
-      <c r="K15" s="7" t="n"/>
-      <c r="L15" s="7" t="n"/>
-      <c r="M15" s="11" t="n"/>
+    <row r="15" spans="2:14" ht="75" customHeight="1" thickBot="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="7"/>
     </row>
-    <row r="16" ht="47.25" customHeight="1" s="3">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.000</t>
-        </is>
-      </c>
-      <c r="D16">
-        <f>D1</f>
-        <v/>
-      </c>
+    <row r="16" spans="2:14" ht="47.25" customHeight="1">
+      <c r="B16"/>
+      <c r="D16"/>
     </row>
-    <row r="17" ht="74.25" customHeight="1" s="3">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 14.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.000</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 16.000</t>
-        </is>
-      </c>
-    </row>
+    <row r="17" ht="74.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M2:N2"/>
@@ -1826,7 +1696,7 @@
     <mergeCell ref="B2:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.3149606299212598" right="0.2755905511811024" top="0.1968503937007874" bottom="0.2755905511811024" header="0.1968503937007874" footer="0.1968503937007874"/>
-  <pageSetup orientation="landscape" paperSize="5" scale="94" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.31496062992125978" right="0.27559055118110237" top="0.19685039370078741" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="5" scale="94" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FORMATO PARA AFORO DE VEHICULOS.xlsx
+++ b/FORMATO PARA AFORO DE VEHICULOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSoftware\PycharmProjects\supervision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECCA29D-E1A5-4DA4-B481-E3F1356EFF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C13945-5090-4EBF-BABF-E247A8EAB9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1815" windowWidth="13425" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -398,6 +398,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,18 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,10 +1457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1478,40 +1481,40 @@
   <sheetData>
     <row r="1" spans="2:14" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="13" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:14" ht="17.25" customHeight="1">
       <c r="B4" s="1" t="s">
@@ -1603,90 +1606,337 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:14" ht="71.25" customHeight="1" thickBot="1">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:14" ht="75" customHeight="1" thickBot="1">
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:14" ht="47.25" customHeight="1">
-      <c r="B16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" ht="74.25" customHeight="1"/>
+    <row r="16" spans="2:14" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="2:13" ht="74.25" customHeight="1" thickBot="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" ht="83.25" customHeight="1" thickBot="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" ht="57.75" customHeight="1" thickBot="1">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="2:13" ht="95.25" customHeight="1" thickBot="1">
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="2:13" ht="69" customHeight="1" thickBot="1">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" ht="84.75" customHeight="1" thickBot="1">
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="2:13" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="2:13" ht="79.5" customHeight="1" thickBot="1">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" ht="83.25" customHeight="1" thickBot="1">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" ht="92.25" customHeight="1" thickBot="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" ht="70.5" customHeight="1" thickBot="1">
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" ht="72.75" customHeight="1" thickBot="1">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" ht="87.75" customHeight="1" thickBot="1">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="2:13" ht="69.75" customHeight="1" thickBot="1">
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="2:13" ht="64.5" customHeight="1" thickBot="1">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" ht="89.25" customHeight="1" thickBot="1">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" ht="119.25" customHeight="1" thickBot="1">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M2:N2"/>
